--- a/Coverage Survey/Madagascar/mg_cs_2_couverture.xlsx
+++ b/Coverage Survey/Madagascar/mg_cs_2_couverture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Madagascar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA605B2-1B82-43FD-B9FA-5A8783F992F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EF3689-15C7-4494-BE8D-4F65395D3DD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="202">
   <si>
     <t>type</t>
   </si>
@@ -183,12 +183,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>mg_cs_2_couverture</t>
-  </si>
-  <si>
-    <t>2. Couverture</t>
-  </si>
-  <si>
     <t>c_district</t>
   </si>
   <si>
@@ -559,6 +553,81 @@
   </si>
   <si>
     <t>Ne sais pas</t>
+  </si>
+  <si>
+    <t>a_recu_medicament4</t>
+  </si>
+  <si>
+    <t>raison_pas_recu_med4</t>
+  </si>
+  <si>
+    <t>raison_pas_recu_med_autres4</t>
+  </si>
+  <si>
+    <t>a_avale_med4</t>
+  </si>
+  <si>
+    <t>raison_avoir_avale4</t>
+  </si>
+  <si>
+    <t>raison_avoir_avale_autres4</t>
+  </si>
+  <si>
+    <t>raison_pas_avale4</t>
+  </si>
+  <si>
+    <t>raison_pas_avale_autre4</t>
+  </si>
+  <si>
+    <t>selected(${a_recu_medicament4}, 'Non')</t>
+  </si>
+  <si>
+    <t>selected(${raison_pas_recu_med4}, 'Autres') and selected(${a_recu_medicament4}, 'Non')</t>
+  </si>
+  <si>
+    <t>selected(${a_recu_medicament4}, 'Oui')</t>
+  </si>
+  <si>
+    <t>selected(${a_avale_med4}, 'Oui')</t>
+  </si>
+  <si>
+    <t>selected(${raison_avoir_avale4}, 'Autres') and selected(${a_recu_medicament4}, 'Oui')</t>
+  </si>
+  <si>
+    <t>selected(${a_avale_med4}, 'Non')</t>
+  </si>
+  <si>
+    <t>selected(${raison_pas_avale4}, 'Autres') and selected(${a_avale_med4}, 'Non')</t>
+  </si>
+  <si>
+    <t>ALBENDAZOLE (PZQ)</t>
+  </si>
+  <si>
+    <t>(PZQ) A reçu les médicaments</t>
+  </si>
+  <si>
+    <t>(PZQ) Raison pour laquelle n’avoir pas reçu les médicaments</t>
+  </si>
+  <si>
+    <t>(PZQ) Veuillez préciser les autres raisons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(PZQ) A avaler le(s) médicament(s) ? </t>
+  </si>
+  <si>
+    <t>(PZQ) Raison d'avoir avalé</t>
+  </si>
+  <si>
+    <t>(PZQ) Raison de ne pas d'avoir avalé</t>
+  </si>
+  <si>
+    <t>2. Couverture V2</t>
+  </si>
+  <si>
+    <t>mg_cs_2_couverture_v2</t>
+  </si>
+  <si>
+    <t>pzq</t>
   </si>
 </sst>
 </file>
@@ -607,7 +676,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,6 +698,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -721,12 +796,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1038,10 +1131,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1097,10 +1190,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15" t="s">
@@ -1122,7 +1215,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>45</v>
@@ -1141,10 +1234,10 @@
         <v>46</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="29" t="s">
@@ -1161,10 +1254,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29" t="s">
@@ -1181,10 +1274,10 @@
         <v>46</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15" t="s">
@@ -1202,10 +1295,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15" t="s">
@@ -1223,7 +1316,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>19</v>
@@ -1244,20 +1337,20 @@
         <v>14</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -1269,23 +1362,23 @@
         <v>14</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>72</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>74</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="17"/>
@@ -1296,10 +1389,10 @@
         <v>48</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
@@ -1330,7 +1423,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>23</v>
@@ -1349,10 +1442,10 @@
         <v>28</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19" t="s">
@@ -1370,10 +1463,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19" t="s">
@@ -1382,7 +1475,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
@@ -1393,10 +1486,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19" t="s">
@@ -1405,7 +1498,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="21"/>
@@ -1416,10 +1509,10 @@
         <v>28</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19" t="s">
@@ -1428,7 +1521,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="21"/>
@@ -1439,10 +1532,10 @@
         <v>36</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="s">
@@ -1451,7 +1544,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="21"/>
@@ -1462,10 +1555,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19" t="s">
@@ -1474,7 +1567,7 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="21"/>
@@ -1485,10 +1578,10 @@
         <v>34</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="s">
@@ -1497,7 +1590,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
@@ -1508,10 +1601,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19" t="s">
@@ -1520,7 +1613,7 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
@@ -1578,10 +1671,10 @@
         <v>28</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
@@ -1594,15 +1687,15 @@
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
     </row>
-    <row r="26" spans="1:11" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="11" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
@@ -1611,7 +1704,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
       <c r="H26" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I26" s="24"/>
       <c r="J26" s="23"/>
@@ -1622,10 +1715,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
@@ -1634,7 +1727,7 @@
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="H27" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I27" s="24"/>
       <c r="J27" s="23"/>
@@ -1645,10 +1738,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -1657,7 +1750,7 @@
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I28" s="24"/>
       <c r="J28" s="23"/>
@@ -1668,10 +1761,10 @@
         <v>36</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
@@ -1680,7 +1773,7 @@
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I29" s="24"/>
       <c r="J29" s="23"/>
@@ -1691,10 +1784,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -1703,7 +1796,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I30" s="24"/>
       <c r="J30" s="23"/>
@@ -1714,10 +1807,10 @@
         <v>34</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
@@ -1726,21 +1819,21 @@
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
       <c r="H31" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
     </row>
-    <row r="32" spans="1:11" s="11" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
@@ -1749,7 +1842,7 @@
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
       <c r="H32" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I32" s="24"/>
       <c r="J32" s="23"/>
@@ -1807,10 +1900,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="25" t="s">
@@ -1823,15 +1916,15 @@
       <c r="J36" s="26"/>
       <c r="K36" s="26"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="25" t="s">
@@ -1840,7 +1933,7 @@
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
       <c r="H37" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I37" s="27"/>
       <c r="J37" s="26"/>
@@ -1851,10 +1944,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25" t="s">
@@ -1863,7 +1956,7 @@
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
       <c r="H38" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I38" s="27"/>
       <c r="J38" s="26"/>
@@ -1874,10 +1967,10 @@
         <v>28</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25" t="s">
@@ -1886,7 +1979,7 @@
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
       <c r="H39" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I39" s="27"/>
       <c r="J39" s="26"/>
@@ -1897,10 +1990,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25" t="s">
@@ -1909,7 +2002,7 @@
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I40" s="27"/>
       <c r="J40" s="26"/>
@@ -1920,10 +2013,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="25" t="s">
@@ -1932,7 +2025,7 @@
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
       <c r="H41" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I41" s="27"/>
       <c r="J41" s="26"/>
@@ -1943,10 +2036,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="25" t="s">
@@ -1955,21 +2048,21 @@
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
       <c r="H42" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I42" s="27"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="25" t="s">
@@ -1978,7 +2071,7 @@
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
       <c r="H43" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I43" s="27"/>
       <c r="J43" s="26"/>
@@ -2012,57 +2105,286 @@
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
+    <row r="46" spans="1:11" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+    </row>
+    <row r="47" spans="1:11" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+    </row>
+    <row r="48" spans="1:11" s="35" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="I48" s="34"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+    </row>
+    <row r="49" spans="1:11" s="35" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B49" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="I49" s="34"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+    </row>
+    <row r="50" spans="1:11" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="I50" s="34"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+    </row>
+    <row r="51" spans="1:11" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="I51" s="34"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+    </row>
+    <row r="52" spans="1:11" s="35" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="I52" s="34"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+    </row>
+    <row r="53" spans="1:11" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="I53" s="34"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+    </row>
+    <row r="54" spans="1:11" s="35" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A54" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="I54" s="34"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+    </row>
+    <row r="55" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+    </row>
+    <row r="56" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="28" t="s">
+      <c r="C57" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B58" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="28" t="s">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B59" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="7"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="7"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -2082,7 +2404,7 @@
   </sheetPr>
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -2133,10 +2455,10 @@
         <v>47</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2144,10 +2466,10 @@
         <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2155,10 +2477,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2166,10 +2488,10 @@
         <v>27</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2177,10 +2499,10 @@
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2188,7 +2510,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>29</v>
@@ -2199,10 +2521,10 @@
         <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2210,10 +2532,10 @@
         <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2221,10 +2543,10 @@
         <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2232,7 +2554,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>30</v>
@@ -2243,10 +2565,10 @@
         <v>31</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2254,10 +2576,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2265,10 +2587,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2276,10 +2598,10 @@
         <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2287,10 +2609,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2298,10 +2620,10 @@
         <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2309,10 +2631,10 @@
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2320,10 +2642,10 @@
         <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2331,10 +2653,10 @@
         <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2342,10 +2664,10 @@
         <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2353,10 +2675,10 @@
         <v>35</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2364,10 +2686,10 @@
         <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2375,10 +2697,10 @@
         <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2386,10 +2708,10 @@
         <v>35</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2653,7 +2975,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2681,10 +3003,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="C2">
         <v>20210224</v>
